--- a/src/test/resources/io.dingodb.test/testdata/txnbtreecases/prepareStatement/sql_ps_batch_cases_txnbtree.xlsx
+++ b/src/test/resources/io.dingodb.test/testdata/txnbtreecases/prepareStatement/sql_ps_batch_cases_txnbtree.xlsx
@@ -161,7 +161,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>y</t>
+    <t>n</t>
   </si>
 </sst>
 </file>
@@ -534,12 +534,12 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="12.25" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.75" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="18.375" style="1" bestFit="1" customWidth="1"/>
